--- a/5_results/5_3_mix/feature_importance_set_2.xlsx
+++ b/5_results/5_3_mix/feature_importance_set_2.xlsx
@@ -472,22 +472,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.04158440195985443</v>
+        <v>0.02891008453912349</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003393694127706248</v>
+        <v>0.003682657192979674</v>
       </c>
       <c r="D2" t="n">
-        <v>5.275982901944052e-06</v>
+        <v>3.092365667884148e-05</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
       </c>
       <c r="F2" t="n">
-        <v>0.04857206507463916</v>
+        <v>0.03649272659920021</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03459673884506969</v>
+        <v>0.02132744247904678</v>
       </c>
     </row>
     <row r="3">
@@ -497,22 +497,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.006355514070498414</v>
+        <v>0.001987158398922384</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0009769548558074331</v>
+        <v>0.0007233139046331531</v>
       </c>
       <c r="D3" t="n">
-        <v>6.494059313554633e-05</v>
+        <v>0.001780262231993234</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
       </c>
       <c r="F3" t="n">
-        <v>0.008367077621556996</v>
+        <v>0.003476471725822626</v>
       </c>
       <c r="G3" t="n">
-        <v>0.004343950519439832</v>
+        <v>0.0004978450720221422</v>
       </c>
     </row>
     <row r="4">
@@ -522,22 +522,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.005599000276605958</v>
+        <v>0.00186658324072364</v>
       </c>
       <c r="C4" t="n">
-        <v>0.001017541886051194</v>
+        <v>0.0005894021770920697</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0001253318003696924</v>
+        <v>0.001049542675813627</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
       </c>
       <c r="F4" t="n">
-        <v>0.007694133083908816</v>
+        <v>0.003080170469760025</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0035038674693031</v>
+        <v>0.0006529960116872561</v>
       </c>
     </row>
     <row r="5">
@@ -547,147 +547,147 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.003841505838235149</v>
+        <v>0.0009147396958619991</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0004410860576823082</v>
+        <v>0.0002460596824426063</v>
       </c>
       <c r="D5" t="n">
-        <v>2.049616645419445e-05</v>
+        <v>0.000571970261177314</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
       </c>
       <c r="F5" t="n">
-        <v>0.004749708127460214</v>
+        <v>0.001421379982917554</v>
       </c>
       <c r="G5" t="n">
-        <v>0.002933303549010083</v>
+        <v>0.0004080994088064441</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-9_RCl_CP-PD</t>
+          <t>eval-TLP-FigRey-totalMemoria-PD</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.002411080292199119</v>
+        <v>0.0008937500192045978</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0005497262929255365</v>
+        <v>0.0002169370453126257</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0003029722053891855</v>
+        <v>0.0003857299799351011</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
       </c>
       <c r="F6" t="n">
-        <v>0.003542974327357616</v>
+        <v>0.001340426393891902</v>
       </c>
       <c r="G6" t="n">
-        <v>0.001279186257040623</v>
+        <v>0.0004470736445172937</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-FigRey-totalMemoria-PD</t>
+          <t>eval-TLP-Tavec-1_RI_A1-PD</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.002040096447742168</v>
+        <v>0.0003395006067043571</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0007127919645029976</v>
+        <v>0.0001747480389569471</v>
       </c>
       <c r="D7" t="n">
-        <v>0.001530566314386473</v>
+        <v>0.006106120303909759</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
       </c>
       <c r="F7" t="n">
-        <v>0.003507744954485752</v>
+        <v>0.0006993092341912831</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0005724479409985838</v>
+        <v>-2.030802078256878e-05</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-FigRey-Duracion-PD</t>
+          <t>eval-TLP-FigRey-totalCopia-PD</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.0015382365648692</v>
+        <v>6.384411484376962e-05</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0002583391655439511</v>
+        <v>5.116847297985548e-05</v>
       </c>
       <c r="D8" t="n">
-        <v>9.19795089689453e-05</v>
+        <v>0.02465615207633182</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
       </c>
       <c r="F8" t="n">
-        <v>0.002070160477350916</v>
+        <v>0.0001692007079327459</v>
       </c>
       <c r="G8" t="n">
-        <v>0.001006312652387483</v>
+        <v>-4.151247824520665e-05</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Stroop-palabrasColor-PD</t>
+          <t>eval-TLP-Tavec-10_RL_LP-PD</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0007270523388692273</v>
+        <v>3.605929136596409e-05</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0001407994820809989</v>
+        <v>2.656255813794419e-05</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0001606616729593596</v>
+        <v>0.01928569721168306</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
       </c>
       <c r="F9" t="n">
-        <v>0.001016960418529656</v>
+        <v>9.075196570556025e-05</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0004371442592087992</v>
+        <v>-1.863338297363207e-05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>demo-genero</t>
+          <t>eval-TLP-FigRey-Duracion-PD</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0006911130857312653</v>
+        <v>1.906758930159125e-05</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0002988730488532078</v>
+        <v>1.382513684932312e-05</v>
       </c>
       <c r="D10" t="n">
-        <v>0.003324438938344789</v>
+        <v>0.01839448340180573</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
       </c>
       <c r="F10" t="n">
-        <v>0.001306496824184546</v>
+        <v>4.753373715804544e-05</v>
       </c>
       <c r="G10" t="n">
-        <v>7.572934727798466e-05</v>
+        <v>-9.398558554862946e-06</v>
       </c>
     </row>
     <row r="11">
@@ -697,97 +697,97 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.000689244656025978</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0003749185516183605</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0.007361541192321254</v>
+        <v>0.5</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001461207135733253</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-8.271782368129738e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-FigRey-totalCopia-PD</t>
+          <t>eval-TLP-Tavec-3_RI_AT-PD</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0006432309375584034</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0001352088690467999</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0002210914943133378</v>
+        <v>0.5</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
       </c>
       <c r="F12" t="n">
-        <v>0.0009216278677109319</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0003648340074058748</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-1_RI_A1-PD</t>
+          <t>eval-TLP-Tavec-2_RI_A5-PD</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0006349608739541601</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0.000151131177144188</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0003576817897864343</v>
+        <v>0.5</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0009461420565488959</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0003237796913594244</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-CubCorsi-totalinversos-PD</t>
+          <t>eval-TLP-Tavec-11_RCl_LP-PD</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.0006156660933721136</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0001361221569887476</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0002689837702314769</v>
+        <v>0.5</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0008959434960200934</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0003353886907241338</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -797,147 +797,147 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0006100681075882575</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0002051687802818091</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0.001328320480793325</v>
+        <v>0.5</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
       </c>
       <c r="F15" t="n">
-        <v>0.001032513461922402</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0001876227532541131</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-3_RI_AT-PD</t>
+          <t>eval-TLP-Stroop-palabrasColor-PD</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.000442086253870122</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>5.805510033411741e-05</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>3.488142233932471e-05</v>
+        <v>0.5</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0005616225078648289</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0003225499998754152</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-10_RL_LP-PD</t>
+          <t>eval-TLP-CubCorsi-total-PD</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.0003082613827708469</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0.000121526066431917</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0.002383135157952939</v>
+        <v>0.5</v>
       </c>
       <c r="E17" t="n">
         <v>5</v>
       </c>
       <c r="F17" t="n">
-        <v>0.000558485233222902</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.80375323187919e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-2_RI_A5-PD</t>
+          <t>eval-TLP-CubCorsi-totalinversos-PD</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.0001597350345090787</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.0001155781000197108</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0.01828070102036488</v>
+        <v>0.5</v>
       </c>
       <c r="E18" t="n">
         <v>5</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0003977119399087688</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>-7.824187089061144e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-CubCorsi-total-PD</t>
+          <t>demo-genero</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.000146982894440284</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>7.922796989356868e-05</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.007139809830238195</v>
+        <v>0.5</v>
       </c>
       <c r="E19" t="n">
         <v>5</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0003101143794980574</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>-1.614859061748941e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-11_RCl_LP-PD</t>
+          <t>eval-TLP-Tavec-9_RCl_CP-PD</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>9.646125103264236e-05</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>5.607943677474992e-05</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0.009180858145635736</v>
+        <v>0.5</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0002119295864520392</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>-1.900708438675453e-05</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/5_results/5_3_mix/feature_importance_set_2.xlsx
+++ b/5_results/5_3_mix/feature_importance_set_2.xlsx
@@ -472,372 +472,372 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.02891008453912349</v>
+        <v>0.03063739381666535</v>
       </c>
       <c r="C2" t="n">
-        <v>0.003682657192979674</v>
+        <v>0.005811888442133823</v>
       </c>
       <c r="D2" t="n">
-        <v>3.092365667884148e-05</v>
+        <v>0.0001482133410777703</v>
       </c>
       <c r="E2" t="n">
         <v>5</v>
       </c>
       <c r="F2" t="n">
-        <v>0.03649272659920021</v>
+        <v>0.04260415244785377</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02132744247904678</v>
+        <v>0.01867063518547692</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>demo-edad</t>
+          <t>eval-TLP-CubCorsi-totalDirectos-PD</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.001987158398922384</v>
+        <v>0.007099099885362348</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0007233139046331531</v>
+        <v>0.001594258411147763</v>
       </c>
       <c r="D3" t="n">
-        <v>0.001780262231993234</v>
+        <v>0.0002857259208294855</v>
       </c>
       <c r="E3" t="n">
         <v>5</v>
       </c>
       <c r="F3" t="n">
-        <v>0.003476471725822626</v>
+        <v>0.01038169998890851</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0004978450720221422</v>
+        <v>0.003816499781816184</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-CubCorsi-totalDirectos-PD</t>
+          <t>eval-TLP-Stroop-palabras-PD</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.00186658324072364</v>
+        <v>0.001669702856216016</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0005894021770920697</v>
+        <v>0.001049939284664909</v>
       </c>
       <c r="D4" t="n">
-        <v>0.001049542675813627</v>
+        <v>0.01183554326376839</v>
       </c>
       <c r="E4" t="n">
         <v>5</v>
       </c>
       <c r="F4" t="n">
-        <v>0.003080170469760025</v>
+        <v>0.003831542355044148</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0006529960116872561</v>
+        <v>-0.0004921366426121165</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Stroop-palabras-PD</t>
+          <t>eval-TLP-FigRey-totalCopia-PD</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0009147396958619991</v>
+        <v>0.001584897241851335</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0002460596824426063</v>
+        <v>0.0006972604678040676</v>
       </c>
       <c r="D5" t="n">
-        <v>0.000571970261177314</v>
+        <v>0.003533789722243694</v>
       </c>
       <c r="E5" t="n">
         <v>5</v>
       </c>
       <c r="F5" t="n">
-        <v>0.001421379982917554</v>
+        <v>0.003020566182223725</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0004080994088064441</v>
+        <v>0.0001492283014789451</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-FigRey-totalMemoria-PD</t>
+          <t>eval-TLP-Tavec-8_RL_CP-PD</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0008937500192045978</v>
+        <v>0.001196049127487808</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0002169370453126257</v>
+        <v>0.0006679569647374755</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0003857299799351011</v>
+        <v>0.008038791218112669</v>
       </c>
       <c r="E6" t="n">
         <v>5</v>
       </c>
       <c r="F6" t="n">
-        <v>0.001340426393891902</v>
+        <v>0.002571381750028631</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0004470736445172937</v>
+        <v>-0.0001792834950530148</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-1_RI_A1-PD</t>
+          <t>eval-TLP-FigRey-Duracion-PD</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0003395006067043571</v>
+        <v>0.0007150920512481562</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0001747480389569471</v>
+        <v>8.388895944827036e-05</v>
       </c>
       <c r="D7" t="n">
-        <v>0.006106120303909759</v>
+        <v>2.23164609675011e-05</v>
       </c>
       <c r="E7" t="n">
         <v>5</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0006993092341912831</v>
+        <v>0.0008878205782207822</v>
       </c>
       <c r="G7" t="n">
-        <v>-2.030802078256878e-05</v>
+        <v>0.0005423635242755301</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-FigRey-totalCopia-PD</t>
+          <t>eval-TLP-Tavec-10_RL_LP-PD</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.384411484376962e-05</v>
+        <v>0.0005564158686228061</v>
       </c>
       <c r="C8" t="n">
-        <v>5.116847297985548e-05</v>
+        <v>0.0002476046161908722</v>
       </c>
       <c r="D8" t="n">
-        <v>0.02465615207633182</v>
+        <v>0.003679992769089137</v>
       </c>
       <c r="E8" t="n">
         <v>5</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0001692007079327459</v>
+        <v>0.001066237195619294</v>
       </c>
       <c r="G8" t="n">
-        <v>-4.151247824520665e-05</v>
+        <v>4.659454162631808e-05</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-10_RL_LP-PD</t>
+          <t>eval-TLP-FigRey-totalMemoria-PD</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.605929136596409e-05</v>
+        <v>0.0003237266663414839</v>
       </c>
       <c r="C9" t="n">
-        <v>2.656255813794419e-05</v>
+        <v>0.0001384714717400694</v>
       </c>
       <c r="D9" t="n">
-        <v>0.01928569721168306</v>
+        <v>0.003197058130958407</v>
       </c>
       <c r="E9" t="n">
         <v>5</v>
       </c>
       <c r="F9" t="n">
-        <v>9.075196570556025e-05</v>
+        <v>0.0006088413405334159</v>
       </c>
       <c r="G9" t="n">
-        <v>-1.863338297363207e-05</v>
+        <v>3.8611992149552e-05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-FigRey-Duracion-PD</t>
+          <t>demo-edad</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.906758930159125e-05</v>
+        <v>0.0002938757268834413</v>
       </c>
       <c r="C10" t="n">
-        <v>1.382513684932312e-05</v>
+        <v>0.0001254800660633225</v>
       </c>
       <c r="D10" t="n">
-        <v>0.01839448340180573</v>
+        <v>0.00317685008582914</v>
       </c>
       <c r="E10" t="n">
         <v>5</v>
       </c>
       <c r="F10" t="n">
-        <v>4.753373715804544e-05</v>
+        <v>0.0005522409172266429</v>
       </c>
       <c r="G10" t="n">
-        <v>-9.398558554862946e-06</v>
+        <v>3.551053654023974e-05</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-8_RL_CP-PD</t>
+          <t>eval-TLP-Tavec-3_RI_AT-PD</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>0.000279864551416753</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>0.0001472695161619254</v>
       </c>
       <c r="D11" t="n">
-        <v>0.5</v>
+        <v>0.006582575852986162</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>0.0005830945206751832</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>-2.336541784167713e-05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-3_RI_AT-PD</t>
+          <t>eval-TLP-Tavec-9_RCl_CP-PD</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>0.0002375912586114692</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>0.0001633530205423369</v>
       </c>
       <c r="D12" t="n">
-        <v>0.5</v>
+        <v>0.0156540613971477</v>
       </c>
       <c r="E12" t="n">
         <v>5</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>0.0005739373856868209</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>-9.875486846388238e-05</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-2_RI_A5-PD</t>
+          <t>demo-genero</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>0.0002096371710150091</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>0.0001119101280639135</v>
       </c>
       <c r="D13" t="n">
-        <v>0.5</v>
+        <v>0.006910245219612685</v>
       </c>
       <c r="E13" t="n">
         <v>5</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>0.0004400616714609526</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>-2.078732943093438e-05</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-11_RCl_LP-PD</t>
+          <t>eval-TLP-Tavec-2_RI_A5-PD</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>0.0001473590336503738</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>6.564033659291102e-05</v>
       </c>
       <c r="D14" t="n">
-        <v>0.5</v>
+        <v>0.003693061834675984</v>
       </c>
       <c r="E14" t="n">
         <v>5</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>0.0002825133939410432</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1.220467335970454e-05</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>clin-reservaCognitiva_escolaridad</t>
+          <t>eval-TLP-Tavec-11_RCl_LP-PD</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>9.146627679563757e-05</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>5.565893738006061e-05</v>
       </c>
       <c r="D15" t="n">
-        <v>0.5</v>
+        <v>0.01065231780540323</v>
       </c>
       <c r="E15" t="n">
         <v>5</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>0.0002060687981494499</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>-2.313624455817475e-05</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Stroop-palabrasColor-PD</t>
+          <t>eval-TLP-Tavec-1_RI_A1-PD</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>6.118352915724934e-05</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>7.395515928792919e-05</v>
       </c>
       <c r="D16" t="n">
-        <v>0.5</v>
+        <v>0.06900178349241826</v>
       </c>
       <c r="E16" t="n">
         <v>5</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>0.0002134582243000237</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>-9.109116598552502e-05</v>
       </c>
     </row>
     <row r="17">
@@ -847,97 +847,97 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>4.505898821449694e-05</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>3.390314336844992e-05</v>
       </c>
       <c r="D17" t="n">
-        <v>0.5</v>
+        <v>0.02053452616441978</v>
       </c>
       <c r="E17" t="n">
         <v>5</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>0.0001148660290013743</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-2.47480525723804e-05</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-CubCorsi-totalinversos-PD</t>
+          <t>eval-TLP-Stroop-palabrasColor-PD</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>4.257289733258229e-05</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1.424266477318782e-05</v>
       </c>
       <c r="D18" t="n">
-        <v>0.5</v>
+        <v>0.001302661767687108</v>
       </c>
       <c r="E18" t="n">
         <v>5</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>7.189874095512307e-05</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>1.324705371004151e-05</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>demo-genero</t>
+          <t>clin-reservaCognitiva_escolaridad</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>3.254920930131355e-05</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1.883439187024172e-05</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5</v>
+        <v>0.009040263953445411</v>
       </c>
       <c r="E19" t="n">
         <v>5</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>7.132948248110124e-05</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>-6.231063878474127e-06</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>eval-TLP-Tavec-9_RCl_CP-PD</t>
+          <t>eval-TLP-CubCorsi-totalinversos-PD</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>2.245374204306039e-05</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1.841712470264787e-05</v>
       </c>
       <c r="D20" t="n">
-        <v>0.5</v>
+        <v>0.02632543374203344</v>
       </c>
       <c r="E20" t="n">
         <v>5</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>6.037485635752717e-05</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>-1.546737227140639e-05</v>
       </c>
     </row>
   </sheetData>
